--- a/biology/Botanique/Rhizome/Rhizome.xlsx
+++ b/biology/Botanique/Rhizome/Rhizome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rhizome est la tige souterraine et parfois subaquatique remplie de réserve alimentaire (ex : chez Iris pseudacorus) de certaines plantes vivaces.
 Comme les racines, le rhizome contribue au décolmatage naturel du sol, voire à la fixation et stabilisation durable des berges ou de certaines zones vaseuses (par les iris et roseaux par exemple) ou des dunes (par les rhizomes d'oyats par exemple).
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot vient du grec ῥίζωμα / rhízōma, « touffe de racines », de ῥίζα / rhíza, « racine ».
 </t>
@@ -544,7 +558,9 @@
           <t>Éléments de définition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rhizome diffère d'une racine et du tubercule par :
 sa relative horizontalité (qui peut être contrainte par la texture du sol, la présence de roches, la pente et une éventuelle instabilité du sol, etc.) ;
@@ -581,7 +597,9 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rhizome a une fonction de réserve d'énergie et souvent joue le rôle de source de propagules.
 Le rhizome peut dans certains cas s'enfoncer profondément dans le sol et se ramifier considérablement et permettre ainsi la multiplication végétative de la plante, qui peut devenir proliférante ou traçante ; c'est le cas par exemple du chiendent ou de l'iris.
@@ -615,7 +633,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Certains rhizomes épaissis sont comestibles, par exemple : 
 le manioc
@@ -623,7 +643,7 @@
 le galanga
 certaines fougères
 l'asperge
-le roseau à massette (quenouille ou Typha latifolia L.) en Amérique du Nord[1]
+le roseau à massette (quenouille ou Typha latifolia L.) en Amérique du Nord
 le Ményanthe (Menyanthes trifoliata), toxique au-delà d'une certaine dose, mais dont les Inuits faisaient de la farine.
 Souvent les rhizomes contiennent des substances toxiques les protégeant des prédateurs de la plante. Certaines de ces substances sont lessivables une fois le rhizome broyé, ou perdent leur toxicité à la cuisson (manioc).
 Certains rhizomes sont utilisés pour des cultures particulières, telle que la chicorée, blanchie par l'absence de lumière, dite chicon ou endive.
